--- a/media/sobsecutity_download_fiz.xlsx
+++ b/media/sobsecutity_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4EDB61-37CE-CF46-AFD3-48A4A730B859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC8C4C2-416A-724F-A7BE-715D17AB8533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{CB8F83B4-7E70-AF4A-BE3F-10DE2DB9D8E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Медведев Н.Н.</t>
-  </si>
-  <si>
-    <t>АКТ сверки по юридическим лицам за май 2024 г.</t>
   </si>
   <si>
     <t>№ объекта</t>
@@ -366,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,47 +547,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1138,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A50016-7483-534E-9E88-ECAEFAED0445}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,11 +1158,11 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1183,11 +1179,11 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
     </row>
     <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1204,11 +1200,11 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1240,13 +1236,13 @@
       <c r="H5" s="8"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="18"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="67"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1266,23 +1262,21 @@
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
     </row>
     <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -1298,56 +1292,54 @@
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="24"/>
-      <c r="N8" s="30">
-        <v>31</v>
-      </c>
+      <c r="N8" s="30"/>
       <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="G9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="H9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="I9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="J9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="K9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="L9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="M9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="N9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="O9" s="40" t="s">
         <v>22</v>
-      </c>
-      <c r="O9" s="40" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2507,40 +2499,40 @@
       <c r="O77" s="51"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="73"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="78"/>
-      <c r="J78" s="78"/>
-      <c r="K78" s="78"/>
-      <c r="L78" s="78"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="79"/>
-      <c r="O78" s="80"/>
-      <c r="P78" s="81"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
+      <c r="K78" s="72"/>
+      <c r="L78" s="72"/>
+      <c r="M78" s="67"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="75"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="73"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="77"/>
-      <c r="I79" s="78"/>
-      <c r="J79" s="78"/>
-      <c r="K79" s="78"/>
-      <c r="L79" s="78"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="80"/>
-      <c r="P79" s="81"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="67"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="75"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
